--- a/Vodovoz/Reports/Orders/NomenclaturePlanReport.xlsx
+++ b/Vodovoz/Reports/Orders/NomenclaturePlanReport.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Rows" vbProcedure="false">Лист1!$A$5:$C$6</definedName>
-    <definedName function="false" hidden="false" name="Rows_Items" vbProcedure="false">Лист1!$C$5</definedName>
+    <definedName function="false" hidden="false" name="Rows_Columns" vbProcedure="false">Лист1!$C$5</definedName>
     <definedName function="false" hidden="false" name="Titles" vbProcedure="false">Лист1!$C$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -217,15 +217,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.02614379084967"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="38.6013071895425"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.5882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="8.71895424836601"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.0326797385621"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="49.1111111111111"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.9084967320261"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="1" width="10.718954248366"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
